--- a/uploadData.xlsx
+++ b/uploadData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>number</t>
   </si>
@@ -1074,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1169,8 +1169,34 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>345</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43994</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6">
+        <v>13423642233</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
